--- a/excel2mysql/excels/comp_event_config.xlsx
+++ b/excel2mysql/excels/comp_event_config.xlsx
@@ -19,17 +19,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>无注释</t>
+    <t>int(11) unsigned|PRI|auto_increment</t>
+  </si>
+  <si>
+    <t>无</t>
   </si>
   <si>
     <t>KindID</t>
   </si>
   <si>
+    <t>int(11)||</t>
+  </si>
+  <si>
     <t>游戏类型</t>
   </si>
   <si>
@@ -48,6 +54,9 @@
     <t>Name</t>
   </si>
   <si>
+    <t>varchar(255)||</t>
+  </si>
+  <si>
     <t>赛事名称</t>
   </si>
   <si>
@@ -117,6 +126,9 @@
     <t>start_date</t>
   </si>
   <si>
+    <t>date||</t>
+  </si>
+  <si>
     <t>赛事开始日期</t>
   </si>
   <si>
@@ -129,6 +141,9 @@
     <t>start_time</t>
   </si>
   <si>
+    <t>time(6)||</t>
+  </si>
+  <si>
     <t>赛事开始时间</t>
   </si>
   <si>
@@ -136,6 +151,12 @@
   </si>
   <si>
     <t>赛事结束时间</t>
+  </si>
+  <si>
+    <t>积分赛1</t>
+  </si>
+  <si>
+    <t>aa</t>
   </si>
 </sst>
 </file>
@@ -181,8 +202,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -465,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -476,61 +503,61 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="T1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
@@ -538,61 +565,1019 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4">
+        <v>90</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>43041</v>
+      </c>
+      <c r="R4" s="1">
+        <v>43042</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.86812500000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5">
+        <v>90</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>43041</v>
+      </c>
+      <c r="R5" s="1">
+        <v>43042</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.86812500000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6">
+        <v>90</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>43041</v>
+      </c>
+      <c r="R6" s="1">
+        <v>43042</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.86812500000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>389</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7">
+        <v>90</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>43041</v>
+      </c>
+      <c r="R7" s="1">
+        <v>43042</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0.86812500000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B8">
+        <v>391</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8">
+        <v>90</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>43041</v>
+      </c>
+      <c r="R8" s="1">
+        <v>43042</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0.86812500000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>392</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9">
+        <v>90</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>43041</v>
+      </c>
+      <c r="R9" s="1">
+        <v>43042</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0.86812500000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A10">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="B10">
+        <v>393</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10">
+        <v>90</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>43041</v>
+      </c>
+      <c r="R10" s="1">
+        <v>43042</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0.86812500000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>394</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11">
+        <v>90</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>43041</v>
+      </c>
+      <c r="R11" s="1">
+        <v>43042</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0.86812500000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>54</v>
+      </c>
+      <c r="B12">
         <v>28</v>
       </c>
-      <c r="P2" t="s">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" t="s">
+        <v>45</v>
+      </c>
+      <c r="P12">
+        <v>90</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>43041</v>
+      </c>
+      <c r="R12" s="1">
+        <v>43042</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0.86812500000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" t="s">
+        <v>45</v>
+      </c>
+      <c r="P13">
+        <v>90</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>43041</v>
+      </c>
+      <c r="R13" s="1">
+        <v>43042</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0.86812500000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>56</v>
+      </c>
+      <c r="B14">
         <v>30</v>
       </c>
-      <c r="Q2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
-        <v>38</v>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" t="s">
+        <v>45</v>
+      </c>
+      <c r="P14">
+        <v>90</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>43041</v>
+      </c>
+      <c r="R14" s="1">
+        <v>43042</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0.86812500000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>57</v>
+      </c>
+      <c r="B15">
+        <v>389</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" t="s">
+        <v>45</v>
+      </c>
+      <c r="P15">
+        <v>90</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>43041</v>
+      </c>
+      <c r="R15" s="1">
+        <v>43042</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0.86812500000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>58</v>
+      </c>
+      <c r="B16">
+        <v>391</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" t="s">
+        <v>45</v>
+      </c>
+      <c r="P16">
+        <v>90</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>43041</v>
+      </c>
+      <c r="R16" s="1">
+        <v>43042</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0.86812500000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>59</v>
+      </c>
+      <c r="B17">
+        <v>392</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" t="s">
+        <v>45</v>
+      </c>
+      <c r="P17">
+        <v>90</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>43041</v>
+      </c>
+      <c r="R17" s="1">
+        <v>43042</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="T17" s="2">
+        <v>0.86812500000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>60</v>
+      </c>
+      <c r="B18">
+        <v>393</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" t="s">
+        <v>45</v>
+      </c>
+      <c r="P18">
+        <v>90</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>43041</v>
+      </c>
+      <c r="R18" s="1">
+        <v>43042</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0.86812500000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>61</v>
+      </c>
+      <c r="B19">
+        <v>394</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N19" t="s">
+        <v>45</v>
+      </c>
+      <c r="P19">
+        <v>90</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>43041</v>
+      </c>
+      <c r="R19" s="1">
+        <v>43042</v>
+      </c>
+      <c r="S19" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="T19" s="2">
+        <v>0.86812500000000004</v>
       </c>
     </row>
   </sheetData>

--- a/excel2mysql/excels/comp_event_config.xlsx
+++ b/excel2mysql/excels/comp_event_config.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\server-tools\excel2mysql\excels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14610"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -141,22 +146,23 @@
     <t>start_time</t>
   </si>
   <si>
+    <t>赛事开始时间</t>
+  </si>
+  <si>
+    <t>end_time</t>
+  </si>
+  <si>
+    <t>赛事结束时间</t>
+  </si>
+  <si>
+    <t>积分赛1</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
     <t>time(6)||</t>
-  </si>
-  <si>
-    <t>赛事开始时间</t>
-  </si>
-  <si>
-    <t>end_time</t>
-  </si>
-  <si>
-    <t>赛事结束时间</t>
-  </si>
-  <si>
-    <t>积分赛1</t>
-  </si>
-  <si>
-    <t>aa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -492,11 +498,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="19" max="19" width="16.875" customWidth="1"/>
+    <col min="20" max="20" width="14.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -557,7 +569,7 @@
         <v>39</v>
       </c>
       <c r="T1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
@@ -616,10 +628,10 @@
         <v>35</v>
       </c>
       <c r="S2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="T2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
@@ -678,10 +690,10 @@
         <v>38</v>
       </c>
       <c r="S3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
@@ -689,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>28</v>
+        <v>391</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -698,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -719,10 +731,10 @@
         <v>2</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P4">
         <v>90</v>
@@ -734,10 +746,10 @@
         <v>43042</v>
       </c>
       <c r="S4" s="2">
-        <v>0.375</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="T4" s="2">
-        <v>0.86812500000000004</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
@@ -745,7 +757,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>29</v>
+        <v>391</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -754,13 +766,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -775,10 +787,10 @@
         <v>2</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P5">
         <v>90</v>
@@ -790,18 +802,18 @@
         <v>43042</v>
       </c>
       <c r="S5" s="2">
-        <v>0.375</v>
+        <v>0.750462962962963</v>
       </c>
       <c r="T5" s="2">
-        <v>0.86812500000000004</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>391</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -810,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -831,10 +843,10 @@
         <v>2</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P6">
         <v>90</v>
@@ -846,18 +858,18 @@
         <v>43042</v>
       </c>
       <c r="S6" s="2">
-        <v>0.375</v>
+        <v>0.875462962962963</v>
       </c>
       <c r="T6" s="2">
-        <v>0.86812500000000004</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -866,13 +878,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -887,10 +899,10 @@
         <v>2</v>
       </c>
       <c r="M7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P7">
         <v>90</v>
@@ -902,15 +914,15 @@
         <v>43042</v>
       </c>
       <c r="S7" s="2">
-        <v>0.375</v>
+        <v>0.89629629629629637</v>
       </c>
       <c r="T7" s="2">
-        <v>0.86812500000000004</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>391</v>
@@ -922,13 +934,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -943,10 +955,10 @@
         <v>2</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P8">
         <v>90</v>
@@ -958,18 +970,18 @@
         <v>43042</v>
       </c>
       <c r="S8" s="2">
-        <v>0.375</v>
+        <v>0.91712962962962974</v>
       </c>
       <c r="T8" s="2">
-        <v>0.86812500000000004</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -978,13 +990,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -999,10 +1011,10 @@
         <v>2</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P9">
         <v>90</v>
@@ -1014,18 +1026,18 @@
         <v>43042</v>
       </c>
       <c r="S9" s="2">
-        <v>0.375</v>
+        <v>0.77129629629629637</v>
       </c>
       <c r="T9" s="2">
-        <v>0.86812500000000004</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1034,13 +1046,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1055,10 +1067,10 @@
         <v>2</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P10">
         <v>90</v>
@@ -1070,18 +1082,18 @@
         <v>43042</v>
       </c>
       <c r="S10" s="2">
-        <v>0.375</v>
+        <v>0.812962962962963</v>
       </c>
       <c r="T10" s="2">
-        <v>0.86812500000000004</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1090,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1111,10 +1123,10 @@
         <v>2</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P11">
         <v>90</v>
@@ -1126,33 +1138,33 @@
         <v>43042</v>
       </c>
       <c r="S11" s="2">
-        <v>0.375</v>
+        <v>0.79212962962962974</v>
       </c>
       <c r="T11" s="2">
-        <v>0.86812500000000004</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>28</v>
+        <v>391</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1167,10 +1179,10 @@
         <v>2</v>
       </c>
       <c r="M12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P12">
         <v>90</v>
@@ -1182,33 +1194,33 @@
         <v>43042</v>
       </c>
       <c r="S12" s="2">
-        <v>0.375</v>
+        <v>0.83379629629629637</v>
       </c>
       <c r="T12" s="2">
-        <v>0.86812500000000004</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>29</v>
+        <v>391</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1223,10 +1235,10 @@
         <v>2</v>
       </c>
       <c r="M13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P13">
         <v>90</v>
@@ -1238,33 +1250,33 @@
         <v>43042</v>
       </c>
       <c r="S13" s="2">
-        <v>0.375</v>
+        <v>0.85462962962962974</v>
       </c>
       <c r="T13" s="2">
-        <v>0.86812500000000004</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>30</v>
+        <v>391</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14">
         <v>2</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1279,10 +1291,10 @@
         <v>2</v>
       </c>
       <c r="M14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P14">
         <v>90</v>
@@ -1294,33 +1306,33 @@
         <v>43042</v>
       </c>
       <c r="S14" s="2">
-        <v>0.375</v>
+        <v>0.72962962962962974</v>
       </c>
       <c r="T14" s="2">
-        <v>0.86812500000000004</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1335,10 +1347,10 @@
         <v>2</v>
       </c>
       <c r="M15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P15">
         <v>90</v>
@@ -1350,33 +1362,33 @@
         <v>43042</v>
       </c>
       <c r="S15" s="2">
-        <v>0.375</v>
+        <v>0.687962962962963</v>
       </c>
       <c r="T15" s="2">
-        <v>0.86812500000000004</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>391</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1391,10 +1403,10 @@
         <v>2</v>
       </c>
       <c r="M16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P16">
         <v>90</v>
@@ -1406,33 +1418,33 @@
         <v>43042</v>
       </c>
       <c r="S16" s="2">
-        <v>0.375</v>
+        <v>0.64629629629629626</v>
       </c>
       <c r="T16" s="2">
-        <v>0.86812500000000004</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1447,10 +1459,10 @@
         <v>2</v>
       </c>
       <c r="M17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P17">
         <v>90</v>
@@ -1462,33 +1474,33 @@
         <v>43042</v>
       </c>
       <c r="S17" s="2">
-        <v>0.375</v>
+        <v>0.60462962962962963</v>
       </c>
       <c r="T17" s="2">
-        <v>0.86812500000000004</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18">
         <v>2</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1503,10 +1515,10 @@
         <v>2</v>
       </c>
       <c r="M18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P18">
         <v>90</v>
@@ -1518,33 +1530,33 @@
         <v>43042</v>
       </c>
       <c r="S18" s="2">
-        <v>0.375</v>
+        <v>0.562962962962963</v>
       </c>
       <c r="T18" s="2">
-        <v>0.86812500000000004</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19">
         <v>2</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1559,10 +1571,10 @@
         <v>2</v>
       </c>
       <c r="M19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P19">
         <v>90</v>
@@ -1574,14 +1586,911 @@
         <v>43042</v>
       </c>
       <c r="S19" s="2">
-        <v>0.375</v>
+        <v>0.52129629629629626</v>
       </c>
       <c r="T19" s="2">
-        <v>0.86812500000000004</v>
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>391</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20" t="s">
+        <v>44</v>
+      </c>
+      <c r="P20">
+        <v>90</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>43041</v>
+      </c>
+      <c r="R20" s="1">
+        <v>43042</v>
+      </c>
+      <c r="S20" s="2">
+        <v>0.47962962962962963</v>
+      </c>
+      <c r="T20" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>391</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" t="s">
+        <v>44</v>
+      </c>
+      <c r="P21">
+        <v>90</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>43041</v>
+      </c>
+      <c r="R21" s="1">
+        <v>43042</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0.43796296296296294</v>
+      </c>
+      <c r="T21" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>391</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" t="s">
+        <v>44</v>
+      </c>
+      <c r="P22">
+        <v>90</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>43041</v>
+      </c>
+      <c r="R22" s="1">
+        <v>43042</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0.39629629629629631</v>
+      </c>
+      <c r="T22" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>391</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" t="s">
+        <v>44</v>
+      </c>
+      <c r="P23">
+        <v>90</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>43041</v>
+      </c>
+      <c r="R23" s="1">
+        <v>43042</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0.37546296296296294</v>
+      </c>
+      <c r="T23" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>391</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" t="s">
+        <v>44</v>
+      </c>
+      <c r="P24">
+        <v>90</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>43041</v>
+      </c>
+      <c r="R24" s="1">
+        <v>43042</v>
+      </c>
+      <c r="S24" s="2">
+        <v>0.41712962962962963</v>
+      </c>
+      <c r="T24" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>391</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25" t="s">
+        <v>44</v>
+      </c>
+      <c r="P25">
+        <v>90</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>43041</v>
+      </c>
+      <c r="R25" s="1">
+        <v>43042</v>
+      </c>
+      <c r="S25" s="2">
+        <v>0.45879629629629631</v>
+      </c>
+      <c r="T25" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>391</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26" t="s">
+        <v>44</v>
+      </c>
+      <c r="N26" t="s">
+        <v>44</v>
+      </c>
+      <c r="P26">
+        <v>90</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>43041</v>
+      </c>
+      <c r="R26" s="1">
+        <v>43042</v>
+      </c>
+      <c r="S26" s="2">
+        <v>0.500462962962963</v>
+      </c>
+      <c r="T26" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>391</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27" t="s">
+        <v>44</v>
+      </c>
+      <c r="N27" t="s">
+        <v>44</v>
+      </c>
+      <c r="P27">
+        <v>90</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>43041</v>
+      </c>
+      <c r="R27" s="1">
+        <v>43042</v>
+      </c>
+      <c r="S27" s="2">
+        <v>0.54212962962962963</v>
+      </c>
+      <c r="T27" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>391</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28" t="s">
+        <v>44</v>
+      </c>
+      <c r="N28" t="s">
+        <v>44</v>
+      </c>
+      <c r="P28">
+        <v>90</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>43041</v>
+      </c>
+      <c r="R28" s="1">
+        <v>43042</v>
+      </c>
+      <c r="S28" s="2">
+        <v>0.58379629629629626</v>
+      </c>
+      <c r="T28" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>391</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29" t="s">
+        <v>44</v>
+      </c>
+      <c r="N29" t="s">
+        <v>44</v>
+      </c>
+      <c r="P29">
+        <v>90</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>43041</v>
+      </c>
+      <c r="R29" s="1">
+        <v>43042</v>
+      </c>
+      <c r="S29" s="2">
+        <v>0.625462962962963</v>
+      </c>
+      <c r="T29" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>391</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30" t="s">
+        <v>44</v>
+      </c>
+      <c r="N30" t="s">
+        <v>44</v>
+      </c>
+      <c r="P30">
+        <v>90</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>43041</v>
+      </c>
+      <c r="R30" s="1">
+        <v>43042</v>
+      </c>
+      <c r="S30" s="2">
+        <v>0.66712962962962974</v>
+      </c>
+      <c r="T30" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>391</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31" t="s">
+        <v>44</v>
+      </c>
+      <c r="N31" t="s">
+        <v>44</v>
+      </c>
+      <c r="P31">
+        <v>90</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>43041</v>
+      </c>
+      <c r="R31" s="1">
+        <v>43042</v>
+      </c>
+      <c r="S31" s="2">
+        <v>0.70879629629629637</v>
+      </c>
+      <c r="T31" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>391</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32" t="s">
+        <v>44</v>
+      </c>
+      <c r="N32" t="s">
+        <v>44</v>
+      </c>
+      <c r="P32">
+        <v>90</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>43041</v>
+      </c>
+      <c r="R32" s="1">
+        <v>43042</v>
+      </c>
+      <c r="S32" s="2">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="T32" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>391</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33" t="s">
+        <v>44</v>
+      </c>
+      <c r="N33" t="s">
+        <v>44</v>
+      </c>
+      <c r="P33">
+        <v>90</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>43041</v>
+      </c>
+      <c r="R33" s="1">
+        <v>43042</v>
+      </c>
+      <c r="S33" s="2">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="T33" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>391</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34" t="s">
+        <v>44</v>
+      </c>
+      <c r="N34" t="s">
+        <v>44</v>
+      </c>
+      <c r="P34">
+        <v>90</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>43041</v>
+      </c>
+      <c r="R34" s="1">
+        <v>43042</v>
+      </c>
+      <c r="S34" s="2">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="T34" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>391</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35" t="s">
+        <v>44</v>
+      </c>
+      <c r="N35" t="s">
+        <v>44</v>
+      </c>
+      <c r="P35">
+        <v>90</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>43041</v>
+      </c>
+      <c r="R35" s="1">
+        <v>43042</v>
+      </c>
+      <c r="S35" s="2">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="T35" s="2">
+        <v>0.95833333333333337</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>